--- a/BING690 HW & TESTS/Assigment 6 Rafael Villasmil BINF690 Fall 2020.xlsx
+++ b/BING690 HW & TESTS/Assigment 6 Rafael Villasmil BINF690 Fall 2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parent/Documents/BINF690 Numerical Methods in Bioinformatics Fall 2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\villasmilr\Documents\GitHub\Assignments BINF690\BING690 HW &amp; TESTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E94F58-3709-7C4F-A56E-D79C6A157ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FA5151-1D8D-4C5B-92C6-F948EE514831}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="2500" windowWidth="36040" windowHeight="16840" xr2:uid="{69891936-7063-B248-93D6-0D934E95CEA7}"/>
+    <workbookView xWindow="46680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{69891936-7063-B248-93D6-0D934E95CEA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -10530,26 +10539,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143FF76D-2D5C-284C-A8F9-30D55B71F2C9}">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="7.6640625" customWidth="1"/>
-    <col min="9" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="7.625" customWidth="1"/>
+    <col min="9" max="11" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -10593,7 +10602,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -10629,44 +10638,44 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C4" s="2">
-        <f>C2*C3</f>
+        <f t="shared" ref="C4:K4" si="2">C2*C3</f>
         <v>1</v>
       </c>
       <c r="D4" s="2">
-        <f>D2*D3</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E4" s="2">
-        <f>E2*E3</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="F4" s="2">
-        <f>F2*F3</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G4" s="2">
-        <f>G2*G3</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="H4" s="2">
-        <f>H2*H3</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="I4" s="2">
-        <f>I2*I3</f>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="J4" s="2">
-        <f>J2*J3</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K4" s="2">
-        <f>K2*K3</f>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="L4" s="2">
@@ -10674,7 +10683,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>76</v>
       </c>
@@ -10683,31 +10692,31 @@
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:J5" si="2">D2^2</f>
+        <f t="shared" ref="D5:J5" si="3">D2^2</f>
         <v>4</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="K5" s="2">
@@ -10719,7 +10728,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -10727,39 +10736,39 @@
         <v>83</v>
       </c>
       <c r="C6" s="2">
-        <f>$C$16+$C$15*C2</f>
+        <f t="shared" ref="C6:K6" si="4">$C$16+$C$15*C2</f>
         <v>-0.55555555555555514</v>
       </c>
       <c r="D6" s="2">
-        <f>$C$16+$C$15*D2</f>
+        <f t="shared" si="4"/>
         <v>0.90277777777777812</v>
       </c>
       <c r="E6" s="2">
-        <f>$C$16+$C$15*E2</f>
+        <f t="shared" si="4"/>
         <v>2.3611111111111116</v>
       </c>
       <c r="F6" s="2">
-        <f>$C$16+$C$15*F2</f>
+        <f t="shared" si="4"/>
         <v>3.8194444444444446</v>
       </c>
       <c r="G6" s="2">
-        <f>$C$16+$C$15*G2</f>
+        <f t="shared" si="4"/>
         <v>5.2777777777777777</v>
       </c>
       <c r="H6" s="2">
-        <f>$C$16+$C$15*H2</f>
+        <f t="shared" si="4"/>
         <v>6.7361111111111116</v>
       </c>
       <c r="I6" s="2">
-        <f>$C$16+$C$15*I2</f>
+        <f t="shared" si="4"/>
         <v>8.1944444444444429</v>
       </c>
       <c r="J6" s="2">
-        <f>$C$16+$C$15*J2</f>
+        <f t="shared" si="4"/>
         <v>9.6527777777777786</v>
       </c>
       <c r="K6" s="2">
-        <f>$C$16+$C$15*K2</f>
+        <f t="shared" si="4"/>
         <v>11.111111111111111</v>
       </c>
       <c r="L6" s="2">
@@ -10767,7 +10776,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>84</v>
       </c>
@@ -10776,35 +10785,35 @@
         <v>-4.2777777777777777</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7:K7" si="3">D3-$C$14</f>
+        <f t="shared" ref="D7:K7" si="5">D3-$C$14</f>
         <v>-3.7777777777777777</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3.2777777777777777</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.2777777777777777</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.2777777777777777</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.27777777777777768</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7222222222222223</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.7222222222222223</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.7222222222222223</v>
       </c>
       <c r="L7" s="2">
@@ -10812,7 +10821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
@@ -10821,35 +10830,35 @@
         <v>18.299382716049383</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:K8" si="4">D7^2</f>
+        <f t="shared" ref="D8:K8" si="6">D7^2</f>
         <v>14.271604938271604</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10.743827160493826</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.1882716049382713</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.6327160493827158</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.7160493827160434E-2</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.4104938271604945</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22.299382716049383</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>59.632716049382715</v>
       </c>
       <c r="L8" s="2">
@@ -10857,44 +10866,44 @@
         <v>139.55555555555554</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C9" s="2">
-        <f>C3-$C$16-$C$15*C2</f>
+        <f t="shared" ref="C9:K9" si="7">C3-$C$16-$C$15*C2</f>
         <v>1.5555555555555551</v>
       </c>
       <c r="D9" s="2">
-        <f>D3-$C$16-$C$15*D2</f>
+        <f t="shared" si="7"/>
         <v>0.59722222222222188</v>
       </c>
       <c r="E9" s="2">
-        <f>E3-$C$16-$C$15*E2</f>
+        <f t="shared" si="7"/>
         <v>-0.3611111111111116</v>
       </c>
       <c r="F9" s="2">
-        <f>F3-$C$16-$C$15*F2</f>
+        <f t="shared" si="7"/>
         <v>-0.81944444444444464</v>
       </c>
       <c r="G9" s="2">
-        <f>G3-$C$16-$C$15*G2</f>
+        <f t="shared" si="7"/>
         <v>-1.2777777777777777</v>
       </c>
       <c r="H9" s="2">
-        <f>H3-$C$16-$C$15*H2</f>
+        <f t="shared" si="7"/>
         <v>-1.7361111111111116</v>
       </c>
       <c r="I9" s="2">
-        <f>I3-$C$16-$C$15*I2</f>
+        <f t="shared" si="7"/>
         <v>-0.19444444444444287</v>
       </c>
       <c r="J9" s="2">
-        <f>J3-$C$16-$C$15*J2</f>
+        <f t="shared" si="7"/>
         <v>0.34722222222222321</v>
       </c>
       <c r="K9" s="2">
-        <f>K3-$C$16-$C$15*K2</f>
+        <f t="shared" si="7"/>
         <v>1.8888888888888893</v>
       </c>
       <c r="L9" s="2">
@@ -10902,44 +10911,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2">
-        <f>(C3-$C$16-$C$15*C2)^2</f>
+        <f t="shared" ref="C10:K10" si="8">(C3-$C$16-$C$15*C2)^2</f>
         <v>2.4197530864197518</v>
       </c>
       <c r="D10" s="2">
-        <f>(D3-$C$16-$C$15*D2)^2</f>
+        <f t="shared" si="8"/>
         <v>0.35667438271604895</v>
       </c>
       <c r="E10" s="2">
-        <f>(E3-$C$16-$C$15*E2)^2</f>
+        <f t="shared" si="8"/>
         <v>0.13040123456790159</v>
       </c>
       <c r="F10" s="2">
-        <f>(F3-$C$16-$C$15*F2)^2</f>
+        <f t="shared" si="8"/>
         <v>0.67148919753086456</v>
       </c>
       <c r="G10" s="2">
-        <f>(G3-$C$16-$C$15*G2)^2</f>
+        <f t="shared" si="8"/>
         <v>1.6327160493827158</v>
       </c>
       <c r="H10" s="2">
-        <f>(H3-$C$16-$C$15*H2)^2</f>
+        <f t="shared" si="8"/>
         <v>3.0140817901234587</v>
       </c>
       <c r="I10" s="2">
-        <f>(I3-$C$16-$C$15*I2)^2</f>
+        <f t="shared" si="8"/>
         <v>3.7808641975308026E-2</v>
       </c>
       <c r="J10" s="2">
-        <f>(J3-$C$16-$C$15*J2)^2</f>
+        <f t="shared" si="8"/>
         <v>0.12056327160493896</v>
       </c>
       <c r="K10" s="2">
-        <f>(K3-$C$16-$C$15*K2)^2</f>
+        <f t="shared" si="8"/>
         <v>3.5679012345679029</v>
       </c>
       <c r="L10" s="23">
@@ -10947,7 +10956,7 @@
         <v>11.951388888888893</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
@@ -10956,7 +10965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
@@ -10965,7 +10974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
@@ -10974,7 +10983,7 @@
         <v>5.2777777777777777</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
@@ -10983,7 +10992,7 @@
         <v>1.4583333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
@@ -10992,7 +11001,7 @@
         <v>-2.0138888888888884</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
@@ -11001,7 +11010,7 @@
         <v>4.1766546953805559</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>8</v>
       </c>
@@ -11010,7 +11019,7 @@
         <v>1.3066526967183247</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B19" s="24" t="s">
         <v>11</v>
       </c>
@@ -11019,7 +11028,7 @@
         <v>the linear regression model has merit</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>85</v>
       </c>
@@ -11028,12 +11037,12 @@
         <v>0.91436106687898089</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="21.75" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
@@ -11045,31 +11054,31 @@
         <v>2</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" ref="E24" si="5">D24+1</f>
+        <f t="shared" ref="E24" si="9">D24+1</f>
         <v>3</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" ref="F24" si="6">E24+1</f>
+        <f t="shared" ref="F24" si="10">E24+1</f>
         <v>4</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" ref="G24" si="7">F24+1</f>
+        <f t="shared" ref="G24" si="11">F24+1</f>
         <v>5</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" ref="H24" si="8">G24+1</f>
+        <f t="shared" ref="H24" si="12">G24+1</f>
         <v>6</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" ref="I24" si="9">H24+1</f>
+        <f t="shared" ref="I24" si="13">H24+1</f>
         <v>7</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" ref="J24" si="10">I24+1</f>
+        <f t="shared" ref="J24" si="14">I24+1</f>
         <v>8</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" ref="K24" si="11">J24+1</f>
+        <f t="shared" ref="K24" si="15">J24+1</f>
         <v>9</v>
       </c>
       <c r="L24" s="2">
@@ -11077,7 +11086,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>1</v>
       </c>
@@ -11109,11 +11118,11 @@
         <v>13</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" ref="L25" si="12">SUM(C25:K25)</f>
+        <f t="shared" ref="L25" si="16">SUM(C25:K25)</f>
         <v>47.5</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -11122,39 +11131,39 @@
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <f t="shared" ref="D26:K26" si="13">D24^2</f>
+        <f t="shared" ref="D26:K26" si="17">D24^2</f>
         <v>4</v>
       </c>
       <c r="E26" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>16</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>25</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>36</v>
       </c>
       <c r="I26" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>49</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>64</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>26</v>
       </c>
@@ -11163,39 +11172,39 @@
         <v>1</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" ref="D27:K27" si="14">D24^3</f>
+        <f t="shared" ref="D27:K27" si="18">D24^3</f>
         <v>8</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>27</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>64</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>125</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>216</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>343</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>512</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>729</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>27</v>
       </c>
@@ -11204,39 +11213,39 @@
         <v>1</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" ref="D28:K28" si="15">D24^4</f>
+        <f t="shared" ref="D28:K28" si="19">D24^4</f>
         <v>16</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>81</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>256</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>625</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1296</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2401</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>4096</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>6561</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
         <v>29</v>
       </c>
@@ -11245,40 +11254,40 @@
         <v>1</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" ref="D29:K29" si="16">D24*D25</f>
+        <f t="shared" ref="D29:K29" si="20">D24*D25</f>
         <v>3</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>12</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>56</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>80</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>117</v>
       </c>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" s="13" t="s">
         <v>30</v>
       </c>
@@ -11287,40 +11296,40 @@
         <v>1</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" ref="D30:K30" si="17">D24^2*D25</f>
+        <f t="shared" ref="D30:K30" si="21">D24^2*D25</f>
         <v>6</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>48</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>180</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>392</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>640</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1053</v>
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
         <v>18</v>
       </c>
@@ -11329,40 +11338,40 @@
         <v>1.2272727272727244</v>
       </c>
       <c r="D31" s="7">
-        <f t="shared" ref="D31:K31" si="18">$B$70+$B$71*D24+$B$72*D24^2</f>
+        <f t="shared" ref="D31:K31" si="22">$B$70+$B$71*D24+$B$72*D24^2</f>
         <v>1.3484848484848473</v>
       </c>
       <c r="E31" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.8517316017316017</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.7370129870129878</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4.0043290043290058</v>
       </c>
       <c r="H31" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5.6536796536796547</v>
       </c>
       <c r="I31" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>7.6850649350649363</v>
       </c>
       <c r="J31" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>10.098484848484848</v>
       </c>
       <c r="K31" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.893939393939391</v>
       </c>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>15</v>
       </c>
@@ -11371,43 +11380,43 @@
         <v>16.406591164166947</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" ref="D32:K32" si="19">(D31-$B$38)^2</f>
+        <f t="shared" ref="D32:K32" si="23">(D31-$B$38)^2</f>
         <v>15.439342924191418</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>11.737792400400627</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>6.4554857219900468</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1.6216717785981813</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.14130222030655018</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5.7950314576396886</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>23.239216661565141</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>58.005917763493478</v>
       </c>
       <c r="L32" s="2">
-        <f t="shared" ref="L32" si="20">SUM(C32:K32)</f>
+        <f t="shared" ref="L32" si="24">SUM(C32:K32)</f>
         <v>138.84235209235209</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>59</v>
       </c>
@@ -11416,35 +11425,35 @@
         <v>5.1652892561982168E-2</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" ref="D33:K33" si="21">(D25-D31)^2</f>
+        <f t="shared" ref="D33:K33" si="25">(D25-D31)^2</f>
         <v>2.2956841138659683E-2</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>2.1983517925076385E-2</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>6.9162168999830936E-2</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.874027848055137E-5</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.42729708963475338</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.9184095125652808E-2</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>9.6992653810834151E-3</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.1248852157943707E-2</v>
       </c>
       <c r="L33" s="2">
@@ -11452,7 +11461,7 @@
         <v>0.71320346320346306</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -11465,7 +11474,7 @@
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -11473,7 +11482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -11482,7 +11491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -11491,7 +11500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -11500,7 +11509,7 @@
         <v>5.2777777777777777</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -11509,7 +11518,7 @@
         <v>0.34477129211586605</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -11518,7 +11527,7 @@
         <v>0.99486321390803678</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -11527,7 +11536,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -11536,7 +11545,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -11545,7 +11554,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -11554,7 +11563,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -11563,7 +11572,7 @@
         <v>15333</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>31</v>
       </c>
@@ -11572,7 +11581,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>32</v>
       </c>
@@ -11581,7 +11590,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>34</v>
       </c>
@@ -11592,7 +11601,7 @@
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="B54" s="15" t="s">
         <v>35</v>
@@ -11616,7 +11625,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>33</v>
       </c>
@@ -11645,7 +11654,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>43</v>
       </c>
@@ -11674,7 +11683,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>45</v>
       </c>
@@ -11703,7 +11712,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -11712,7 +11721,7 @@
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="15" t="s">
         <v>35</v>
@@ -11729,7 +11738,7 @@
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>33</v>
       </c>
@@ -11748,7 +11757,7 @@
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
         <v>43</v>
       </c>
@@ -11771,7 +11780,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>45</v>
       </c>
@@ -11793,7 +11802,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -11802,7 +11811,7 @@
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="15" t="s">
         <v>35</v>
@@ -11819,7 +11828,7 @@
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
         <v>33</v>
       </c>
@@ -11838,7 +11847,7 @@
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>43</v>
       </c>
@@ -11857,7 +11866,7 @@
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
         <v>45</v>
       </c>
@@ -11879,7 +11888,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -11888,7 +11897,7 @@
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>50</v>
       </c>
@@ -11901,7 +11910,7 @@
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -11917,7 +11926,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -11933,7 +11942,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>58</v>
       </c>
@@ -11949,10 +11958,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="18"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>62</v>
       </c>
@@ -11975,7 +11984,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>69</v>
       </c>
@@ -12001,7 +12010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>70</v>
       </c>
@@ -12013,24 +12022,24 @@
         <v>15.000000000000004</v>
       </c>
       <c r="D83" s="20">
-        <f t="shared" ref="D83:G83" si="22">(E82-D82)/(E81-D81)</f>
+        <f t="shared" ref="D83:G83" si="26">(E82-D82)/(E81-D81)</f>
         <v>12</v>
       </c>
       <c r="E83" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.4285714285714282</v>
       </c>
       <c r="F83" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>-8.7500000000000018</v>
       </c>
       <c r="G83" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>-12</v>
       </c>
       <c r="H83" s="20"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>71</v>
       </c>
@@ -12042,21 +12051,21 @@
         <v>-3.3333333333333375</v>
       </c>
       <c r="D84" s="20">
-        <f t="shared" ref="D84:F84" si="23">(E83-D83)/(F81-D81)</f>
+        <f t="shared" ref="D84:F84" si="27">(E83-D83)/(F81-D81)</f>
         <v>-8.8095238095238084</v>
       </c>
       <c r="E84" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-6.7857142857142874</v>
       </c>
       <c r="F84" s="20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-2.4999999999999991</v>
       </c>
       <c r="G84" s="21"/>
       <c r="H84" s="21"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>72</v>
       </c>
@@ -12068,18 +12077,18 @@
         <v>-3.4226190476190443</v>
       </c>
       <c r="D85" s="20">
-        <f t="shared" ref="D85:E85" si="24">(E84-D84)/(G81-D81)</f>
+        <f t="shared" ref="D85:E85" si="28">(E84-D84)/(G81-D81)</f>
         <v>1.0119047619047605</v>
       </c>
       <c r="E85" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2.1428571428571441</v>
       </c>
       <c r="F85" s="21"/>
       <c r="G85" s="21"/>
       <c r="H85" s="21"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>73</v>
       </c>
@@ -12099,7 +12108,7 @@
       <c r="G86" s="21"/>
       <c r="H86" s="21"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>74</v>
       </c>
@@ -12116,7 +12125,7 @@
       <c r="G87" s="21"/>
       <c r="H87" s="21"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>62</v>
       </c>
@@ -12124,7 +12133,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -12133,172 +12142,172 @@
         <v>0.5968749999999825</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <f>A90+0.25</f>
         <v>1.25</v>
       </c>
       <c r="B91">
-        <f t="shared" ref="B91:B107" si="25">$C$82+$C$83*(A91-$C$81)+$C$84*(A91-$C$81)*(A91-$D$81)+$C$85*(A91-$C$81)*(A91-$D$81)*(A91-$E$81)+$C$86*(A91-$C$81)*(A91-$D$81)*(A91-$E$81)*(A91-$F$81)+$C$87*(A91-$C$81)*(A91-$D$81)*(A91-$E$81)*(A91-$F$81)*(A91-$G$81)</f>
+        <f t="shared" ref="B91:B107" si="29">$C$82+$C$83*(A91-$C$81)+$C$84*(A91-$C$81)*(A91-$D$81)+$C$85*(A91-$C$81)*(A91-$D$81)*(A91-$E$81)+$C$86*(A91-$C$81)*(A91-$D$81)*(A91-$E$81)*(A91-$F$81)+$C$87*(A91-$C$81)*(A91-$D$81)*(A91-$E$81)*(A91-$F$81)*(A91-$G$81)</f>
         <v>-0.97308349609375666</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" ref="A92:A106" si="26">A91+0.25</f>
+        <f t="shared" ref="A92:A106" si="30">A91+0.25</f>
         <v>1.5</v>
       </c>
       <c r="B92">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.76376488095237871</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1.75</v>
       </c>
       <c r="B93">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4.1592372349330358</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="B94">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>2.25</v>
       </c>
       <c r="B95">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11.451184082031251</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>2.5</v>
       </c>
       <c r="B96">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>2.75</v>
       </c>
       <c r="B97">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>15.39935302734375</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="19">
         <v>2.8</v>
       </c>
       <c r="B98">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>15.534914285714285</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <f>A97+0.25</f>
         <v>3</v>
       </c>
       <c r="B99">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>15.611458333333335</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>3.25</v>
       </c>
       <c r="B100">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>14.751456124441965</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>3.5</v>
       </c>
       <c r="B101">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>13.031026785714289</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>3.75</v>
       </c>
       <c r="B102">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10.702006022135418</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="B103">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>8.0000000000000018</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <f>A103+0.25</f>
         <v>4.25</v>
       </c>
       <c r="B104">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5.0880004882812457</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4.5</v>
       </c>
       <c r="B105">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.9999999999999964</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4.75</v>
       </c>
       <c r="B106">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-1.4153930664062688</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <f>A106+0.25</f>
         <v>5</v>
       </c>
       <c r="B107">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-5.5513392857142563</v>
       </c>
     </row>
@@ -12328,21 +12337,21 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="8" width="7.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="8" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -12374,11 +12383,11 @@
         <v>7</v>
       </c>
       <c r="J2" s="2">
-        <f>SUM(C2:I2)</f>
+        <f t="shared" ref="J2:J14" si="1">SUM(C2:I2)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -12404,85 +12413,85 @@
         <v>5.5</v>
       </c>
       <c r="J3" s="2">
-        <f>SUM(C3:I3)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="2">
-        <f>C2-$C$17</f>
+        <f t="shared" ref="C4:I4" si="2">C2-$C$17</f>
         <v>-3</v>
       </c>
       <c r="D4" s="2">
-        <f>D2-$C$17</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="E4" s="2">
-        <f>E2-$C$17</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="F4" s="2">
-        <f>F2-$C$17</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f>G2-$C$17</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H4" s="2">
-        <f>H2-$C$17</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I4" s="2">
-        <f>I2-$C$17</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J4" s="2">
-        <f>SUM(C4:I4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="2">
-        <f>C3-$C$18</f>
+        <f t="shared" ref="C5:I5" si="3">C3-$C$18</f>
         <v>-2.9285714285714284</v>
       </c>
       <c r="D5" s="2">
-        <f>D3-$C$18</f>
+        <f t="shared" si="3"/>
         <v>-0.92857142857142838</v>
       </c>
       <c r="E5" s="2">
-        <f>E3-$C$18</f>
+        <f t="shared" si="3"/>
         <v>-1.4285714285714284</v>
       </c>
       <c r="F5" s="2">
-        <f>F3-$C$18</f>
+        <f t="shared" si="3"/>
         <v>0.57142857142857162</v>
       </c>
       <c r="G5" s="2">
-        <f>G3-$C$18</f>
+        <f t="shared" si="3"/>
         <v>7.1428571428571619E-2</v>
       </c>
       <c r="H5" s="2">
-        <f>H3-$C$18</f>
+        <f t="shared" si="3"/>
         <v>2.5714285714285716</v>
       </c>
       <c r="I5" s="2">
-        <f>I3-$C$18</f>
+        <f t="shared" si="3"/>
         <v>2.0714285714285716</v>
       </c>
       <c r="J5" s="2">
-        <f>SUM(C5:I5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>75</v>
       </c>
@@ -12491,35 +12500,35 @@
         <v>0.5</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D6:I6" si="1">D2*D3</f>
+        <f t="shared" ref="D6:I6" si="4">D2*D3</f>
         <v>5</v>
       </c>
       <c r="E6" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="4"/>
+        <v>17.5</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="4"/>
+        <v>38.5</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="1"/>
-        <v>17.5</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="1"/>
-        <v>38.5</v>
-      </c>
-      <c r="J6" s="2">
-        <f>SUM(C6:I6)</f>
         <v>119.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>76</v>
       </c>
@@ -12528,35 +12537,35 @@
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7:I7" si="2">D2^2</f>
+        <f t="shared" ref="D7:I7" si="5">D2^2</f>
         <v>4</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="J7" s="2">
-        <f>SUM(C7:I7)</f>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
@@ -12565,35 +12574,35 @@
         <v>8.7857142857142847</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:I8" si="3">D4*D5</f>
+        <f t="shared" ref="D8:I8" si="6">D4*D5</f>
         <v>1.8571428571428568</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4285714285714284</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.1428571428571619E-2</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.1428571428571432</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.2142857142857153</v>
       </c>
       <c r="J8" s="2">
-        <f>SUM(C8:I8)</f>
+        <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
@@ -12602,35 +12611,35 @@
         <v>9</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:I9" si="4">D4^2</f>
+        <f t="shared" ref="D9:I9" si="7">D4^2</f>
         <v>4</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="J9" s="2">
-        <f>SUM(C9:I9)</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -12638,35 +12647,35 @@
         <v>80</v>
       </c>
       <c r="C10" s="2">
-        <f>$C$20+$C$19*C2</f>
+        <f t="shared" ref="C10:I10" si="8">$C$20+$C$19*C2</f>
         <v>0.91071428571428548</v>
       </c>
       <c r="D10" s="2">
-        <f>$C$20+$C$19*D2</f>
+        <f t="shared" si="8"/>
         <v>1.7499999999999998</v>
       </c>
       <c r="E10" s="2">
-        <f>$C$20+$C$19*E2</f>
+        <f t="shared" si="8"/>
         <v>2.589285714285714</v>
       </c>
       <c r="F10" s="2">
-        <f>$C$20+$C$19*F2</f>
+        <f t="shared" si="8"/>
         <v>3.4285714285714284</v>
       </c>
       <c r="G10" s="2">
-        <f>$C$20+$C$19*G2</f>
+        <f t="shared" si="8"/>
         <v>4.2678571428571423</v>
       </c>
       <c r="H10" s="2">
-        <f>$C$20+$C$19*H2</f>
+        <f t="shared" si="8"/>
         <v>5.1071428571428568</v>
       </c>
       <c r="I10" s="2">
-        <f>$C$20+$C$19*I2</f>
+        <f t="shared" si="8"/>
         <v>5.9464285714285712</v>
       </c>
       <c r="J10" s="2">
-        <f>SUM(C10:I10)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="K10" s="23">
@@ -12674,7 +12683,7 @@
         <v>3.4285714285714284</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>77</v>
       </c>
@@ -12683,71 +12692,71 @@
         <v>-0.41071428571428548</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ref="D11:I11" si="5">D3-D10</f>
+        <f t="shared" ref="D11:I11" si="9">D3-D10</f>
         <v>0.75000000000000022</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-0.58928571428571397</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.57142857142857162</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-0.76785714285714235</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.89285714285714324</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-0.44642857142857117</v>
       </c>
       <c r="J11" s="2">
-        <f>SUM(C11:I11)</f>
+        <f t="shared" si="1"/>
         <v>2.1094237467877974E-15</v>
       </c>
       <c r="K11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>78</v>
       </c>
       <c r="C12" s="2">
-        <f>(C11-$C$18)^2</f>
+        <f t="shared" ref="C12:I12" si="10">(C11-$C$18)^2</f>
         <v>14.740114795918364</v>
       </c>
       <c r="D12" s="2">
-        <f>(D11-$C$18)^2</f>
+        <f t="shared" si="10"/>
         <v>7.1747448979591804</v>
       </c>
       <c r="E12" s="2">
-        <f>(E11-$C$18)^2</f>
+        <f t="shared" si="10"/>
         <v>16.143176020408159</v>
       </c>
       <c r="F12" s="2">
-        <f>(F11-$C$18)^2</f>
+        <f t="shared" si="10"/>
         <v>8.1632653061224474</v>
       </c>
       <c r="G12" s="2">
-        <f>(G11-$C$18)^2</f>
+        <f t="shared" si="10"/>
         <v>17.610012755102037</v>
       </c>
       <c r="H12" s="2">
-        <f>(H11-$C$18)^2</f>
+        <f t="shared" si="10"/>
         <v>6.4298469387755075</v>
       </c>
       <c r="I12" s="2">
-        <f>(I11-$C$18)^2</f>
+        <f t="shared" si="10"/>
         <v>15.015624999999996</v>
       </c>
       <c r="J12" s="2">
-        <f>SUM(C12:I12)</f>
+        <f t="shared" si="1"/>
         <v>85.276785714285708</v>
       </c>
       <c r="K12" s="23">
@@ -12755,44 +12764,44 @@
         <v>12.182397959183673</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2">
-        <f>(C3-$C$20-$C$19*C2)^2</f>
+        <f t="shared" ref="C13:I13" si="11">(C3-$C$20-$C$19*C2)^2</f>
         <v>0.16868622448979573</v>
       </c>
       <c r="D13" s="2">
-        <f>(D3-$C$20-$C$19*D2)^2</f>
+        <f t="shared" si="11"/>
         <v>0.56250000000000033</v>
       </c>
       <c r="E13" s="2">
-        <f>(E3-$C$20-$C$19*E2)^2</f>
+        <f t="shared" si="11"/>
         <v>0.34725765306122414</v>
       </c>
       <c r="F13" s="2">
-        <f>(F3-$C$20-$C$19*F2)^2</f>
+        <f t="shared" si="11"/>
         <v>0.32653061224489816</v>
       </c>
       <c r="G13" s="2">
-        <f>(G3-$C$20-$C$19*G2)^2</f>
+        <f t="shared" si="11"/>
         <v>0.58960459183673386</v>
       </c>
       <c r="H13" s="2">
-        <f>(H3-$C$20-$C$19*H2)^2</f>
+        <f t="shared" si="11"/>
         <v>0.79719387755102111</v>
       </c>
       <c r="I13" s="2">
-        <f>(I3-$C$20-$C$19*I2)^2</f>
+        <f t="shared" si="11"/>
         <v>0.19929846938775486</v>
       </c>
       <c r="J13" s="2">
-        <f>SUM(C13:I13)</f>
+        <f t="shared" si="1"/>
         <v>2.9910714285714279</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>81</v>
       </c>
@@ -12801,35 +12810,35 @@
         <v>-2.5178571428571428</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" ref="D14:I14" si="6">D10-$C$18</f>
+        <f t="shared" ref="D14:I14" si="12">D10-$C$18</f>
         <v>-1.6785714285714286</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-0.83928571428571441</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.83928571428571397</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.6785714285714284</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.5178571428571428</v>
       </c>
       <c r="J14">
-        <f>SUM(C14:I14)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>2</v>
       </c>
@@ -12838,7 +12847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
@@ -12847,7 +12856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
@@ -12856,7 +12865,7 @@
         <v>3.4285714285714284</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>6</v>
       </c>
@@ -12865,7 +12874,7 @@
         <v>0.8392857142857143</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
@@ -12874,7 +12883,7 @@
         <v>7.1428571428571175E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>9</v>
       </c>
@@ -12883,7 +12892,7 @@
         <v>1.4249209310919484</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>8</v>
       </c>
@@ -12892,7 +12901,7 @@
         <v>0.7734431367038469</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>11</v>
       </c>
@@ -12901,13 +12910,13 @@
         <v>the linear regression model has merit</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="4" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:10" ht="22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:10" ht="21.75" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
@@ -12919,23 +12928,23 @@
         <v>2</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" ref="E28:I28" si="7">D28+1</f>
+        <f t="shared" ref="E28:I28" si="13">D28+1</f>
         <v>3</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="J28" s="2">
@@ -12943,7 +12952,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>1</v>
       </c>
@@ -12973,7 +12982,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>25</v>
       </c>
@@ -12982,31 +12991,31 @@
         <v>1</v>
       </c>
       <c r="D30" s="7">
-        <f t="shared" ref="D30:I30" si="8">D28^2</f>
+        <f t="shared" ref="D30:I30" si="14">D28^2</f>
         <v>4</v>
       </c>
       <c r="E30" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="F30" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="H30" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>36</v>
       </c>
       <c r="I30" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>26</v>
       </c>
@@ -13015,31 +13024,31 @@
         <v>1</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" ref="D31:I31" si="9">D28^3</f>
+        <f t="shared" ref="D31:I31" si="15">D28^3</f>
         <v>8</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>64</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>125</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>216</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>343</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>27</v>
       </c>
@@ -13048,31 +13057,31 @@
         <v>1</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" ref="D32:I32" si="10">D28^4</f>
+        <f t="shared" ref="D32:I32" si="16">D28^4</f>
         <v>16</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>81</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>256</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>625</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1296</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2401</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
         <v>29</v>
       </c>
@@ -13081,32 +13090,32 @@
         <v>1</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" ref="D33:I33" si="11">D28*D29</f>
+        <f t="shared" ref="D33:I33" si="17">D28*D29</f>
         <v>3</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>12</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>30</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>56</v>
       </c>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
         <v>30</v>
       </c>
@@ -13115,95 +13124,95 @@
         <v>1</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" ref="D34:I34" si="12">D28^2*D29</f>
+        <f t="shared" ref="D34:I34" si="18">D28^2*D29</f>
         <v>6</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>48</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>180</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>392</v>
       </c>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B35" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C35" s="7">
-        <f>$B$74+$B$75*C28+$B$76*C28^2</f>
+        <f t="shared" ref="C35:I35" si="19">$B$74+$B$75*C28+$B$76*C28^2</f>
         <v>1.2272727272727244</v>
       </c>
       <c r="D35" s="7">
-        <f>$B$74+$B$75*D28+$B$76*D28^2</f>
+        <f t="shared" si="19"/>
         <v>1.3484848484848473</v>
       </c>
       <c r="E35" s="7">
-        <f>$B$74+$B$75*E28+$B$76*E28^2</f>
+        <f t="shared" si="19"/>
         <v>1.8517316017316017</v>
       </c>
       <c r="F35" s="7">
-        <f>$B$74+$B$75*F28+$B$76*F28^2</f>
+        <f t="shared" si="19"/>
         <v>2.7370129870129878</v>
       </c>
       <c r="G35" s="7">
-        <f>$B$74+$B$75*G28+$B$76*G28^2</f>
+        <f t="shared" si="19"/>
         <v>4.0043290043290058</v>
       </c>
       <c r="H35" s="7">
-        <f>$B$74+$B$75*H28+$B$76*H28^2</f>
+        <f t="shared" si="19"/>
         <v>5.6536796536796547</v>
       </c>
       <c r="I35" s="7">
-        <f>$B$74+$B$75*I28+$B$76*I28^2</f>
+        <f t="shared" si="19"/>
         <v>7.6850649350649363</v>
       </c>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="2">
-        <f>(C35-$B$42)^2</f>
+        <f t="shared" ref="C36:I36" si="20">(C35-$B$42)^2</f>
         <v>5.1652892561983599</v>
       </c>
       <c r="D36" s="2">
-        <f>(D35-$B$42)^2</f>
+        <f t="shared" si="20"/>
         <v>4.6290174471992707</v>
       </c>
       <c r="E36" s="2">
-        <f>(E35-$B$42)^2</f>
+        <f t="shared" si="20"/>
         <v>2.7167887127302714</v>
       </c>
       <c r="F36" s="2">
-        <f>(F35-$B$42)^2</f>
+        <f t="shared" si="20"/>
         <v>0.58214918198684318</v>
       </c>
       <c r="G36" s="2">
-        <f>(G35-$B$42)^2</f>
+        <f t="shared" si="20"/>
         <v>0.25434774460748638</v>
       </c>
       <c r="H36" s="2">
-        <f>(H35-$B$42)^2</f>
+        <f t="shared" si="20"/>
         <v>4.6383360506737175</v>
       </c>
       <c r="I36" s="2">
-        <f>(I35-$B$42)^2</f>
+        <f t="shared" si="20"/>
         <v>17.514768510710081</v>
       </c>
       <c r="J36" s="2">
@@ -13211,7 +13220,7 @@
         <v>35.500696904106029</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>59</v>
       </c>
@@ -13220,27 +13229,27 @@
         <v>5.1652892561982168E-2</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" ref="D37:I37" si="13">(D29-D35)^2</f>
+        <f t="shared" ref="D37:I37" si="21">(D29-D35)^2</f>
         <v>2.2956841138659683E-2</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>2.1983517925076385E-2</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>6.9162168999830936E-2</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1.874027848055137E-5</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.42729708963475338</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>9.9184095125652808E-2</v>
       </c>
       <c r="J37" s="2">
@@ -13248,7 +13257,7 @@
         <v>0.69225534566443592</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" s="13"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -13259,7 +13268,7 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -13267,7 +13276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -13276,7 +13285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -13285,7 +13294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -13294,7 +13303,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -13303,7 +13312,7 @@
         <v>0.41600941866273772</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -13312,7 +13321,7 @@
         <v>0.9805002322198253</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -13321,7 +13330,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -13330,7 +13339,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -13339,7 +13348,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -13348,7 +13357,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -13357,7 +13366,7 @@
         <v>4676</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>31</v>
       </c>
@@ -13366,7 +13375,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>32</v>
       </c>
@@ -13375,7 +13384,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>34</v>
       </c>
@@ -13386,7 +13395,7 @@
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="15" t="s">
         <v>35</v>
@@ -13410,7 +13419,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>33</v>
       </c>
@@ -13439,7 +13448,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>43</v>
       </c>
@@ -13468,7 +13477,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
         <v>45</v>
       </c>
@@ -13497,7 +13506,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -13506,7 +13515,7 @@
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="15" t="s">
         <v>35</v>
@@ -13523,7 +13532,7 @@
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
         <v>33</v>
       </c>
@@ -13542,7 +13551,7 @@
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
         <v>43</v>
       </c>
@@ -13565,7 +13574,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>45</v>
       </c>
@@ -13587,7 +13596,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -13596,7 +13605,7 @@
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="15" t="s">
         <v>35</v>
@@ -13613,7 +13622,7 @@
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
         <v>33</v>
       </c>
@@ -13632,7 +13641,7 @@
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>43</v>
       </c>
@@ -13651,7 +13660,7 @@
       <c r="F70" s="14"/>
       <c r="G70" s="14"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>45</v>
       </c>
@@ -13673,7 +13682,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -13682,7 +13691,7 @@
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>50</v>
       </c>
@@ -13695,7 +13704,7 @@
       <c r="F73" s="14"/>
       <c r="G73" s="14"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>56</v>
       </c>
@@ -13711,7 +13720,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>57</v>
       </c>
@@ -13727,7 +13736,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>58</v>
       </c>
@@ -13743,10 +13752,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="18"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>62</v>
       </c>
@@ -13769,7 +13778,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>69</v>
       </c>
@@ -13795,7 +13804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>70</v>
       </c>
@@ -13807,24 +13816,24 @@
         <v>15.000000000000004</v>
       </c>
       <c r="D87" s="20">
-        <f t="shared" ref="D87:G87" si="14">(E86-D86)/(E85-D85)</f>
+        <f t="shared" ref="D87:G87" si="22">(E86-D86)/(E85-D85)</f>
         <v>12</v>
       </c>
       <c r="E87" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>1.4285714285714282</v>
       </c>
       <c r="F87" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-8.7500000000000018</v>
       </c>
       <c r="G87" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>-12</v>
       </c>
       <c r="H87" s="20"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>71</v>
       </c>
@@ -13836,21 +13845,21 @@
         <v>-3.3333333333333375</v>
       </c>
       <c r="D88" s="20">
-        <f t="shared" ref="D88:F88" si="15">(E87-D87)/(F85-D85)</f>
+        <f t="shared" ref="D88:F88" si="23">(E87-D87)/(F85-D85)</f>
         <v>-8.8095238095238084</v>
       </c>
       <c r="E88" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>-6.7857142857142874</v>
       </c>
       <c r="F88" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>-2.4999999999999991</v>
       </c>
       <c r="G88" s="21"/>
       <c r="H88" s="21"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>72</v>
       </c>
@@ -13862,18 +13871,18 @@
         <v>-3.4226190476190443</v>
       </c>
       <c r="D89" s="20">
-        <f t="shared" ref="D89:E89" si="16">(E88-D88)/(G85-D85)</f>
+        <f t="shared" ref="D89:E89" si="24">(E88-D88)/(G85-D85)</f>
         <v>1.0119047619047605</v>
       </c>
       <c r="E89" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>2.1428571428571441</v>
       </c>
       <c r="F89" s="21"/>
       <c r="G89" s="21"/>
       <c r="H89" s="21"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>73</v>
       </c>
@@ -13893,7 +13902,7 @@
       <c r="G90" s="21"/>
       <c r="H90" s="21"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>74</v>
       </c>
@@ -13910,7 +13919,7 @@
       <c r="G91" s="21"/>
       <c r="H91" s="21"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>62</v>
       </c>
@@ -13918,7 +13927,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -13927,172 +13936,172 @@
         <v>0.5968749999999825</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <f>A94+0.25</f>
         <v>1.25</v>
       </c>
       <c r="B95">
-        <f t="shared" ref="B95:B111" si="17">$C$86+$C$87*(A95-$C$85)+$C$88*(A95-$C$85)*(A95-$D$85)+$C$89*(A95-$C$85)*(A95-$D$85)*(A95-$E$85)+$C$90*(A95-$C$85)*(A95-$D$85)*(A95-$E$85)*(A95-$F$85)+$C$91*(A95-$C$85)*(A95-$D$85)*(A95-$E$85)*(A95-$F$85)*(A95-$G$85)</f>
+        <f t="shared" ref="B95:B111" si="25">$C$86+$C$87*(A95-$C$85)+$C$88*(A95-$C$85)*(A95-$D$85)+$C$89*(A95-$C$85)*(A95-$D$85)*(A95-$E$85)+$C$90*(A95-$C$85)*(A95-$D$85)*(A95-$E$85)*(A95-$F$85)+$C$91*(A95-$C$85)*(A95-$D$85)*(A95-$E$85)*(A95-$F$85)*(A95-$G$85)</f>
         <v>-0.97308349609375666</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" ref="A96:A110" si="18">A95+0.25</f>
+        <f t="shared" ref="A96:A110" si="26">A95+0.25</f>
         <v>1.5</v>
       </c>
       <c r="B96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0.76376488095237871</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>1.75</v>
       </c>
       <c r="B97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>4.1592372349330358</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="B98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>2.25</v>
       </c>
       <c r="B99">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>11.451184082031251</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>2.5</v>
       </c>
       <c r="B100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>2.75</v>
       </c>
       <c r="B101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>15.39935302734375</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="19">
         <v>2.8</v>
       </c>
       <c r="B102">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>15.534914285714285</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <f>A101+0.25</f>
         <v>3</v>
       </c>
       <c r="B103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>15.611458333333335</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3.25</v>
       </c>
       <c r="B104">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>14.751456124441965</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3.5</v>
       </c>
       <c r="B105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>13.031026785714289</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3.75</v>
       </c>
       <c r="B106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>10.702006022135418</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="B107">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>8.0000000000000018</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <f>A107+0.25</f>
         <v>4.25</v>
       </c>
       <c r="B108">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>5.0880004882812457</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>4.5</v>
       </c>
       <c r="B109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1.9999999999999964</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>4.75</v>
       </c>
       <c r="B110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>-1.4153930664062688</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <f>A110+0.25</f>
         <v>5</v>
       </c>
       <c r="B111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>-5.5513392857142563</v>
       </c>
     </row>

--- a/BING690 HW & TESTS/Assigment 6 Rafael Villasmil BINF690 Fall 2020.xlsx
+++ b/BING690 HW & TESTS/Assigment 6 Rafael Villasmil BINF690 Fall 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\villasmilr\Documents\GitHub\Assignments BINF690\BING690 HW &amp; TESTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FA5151-1D8D-4C5B-92C6-F948EE514831}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C91DD5-3C9F-4038-87E8-AB568F9822EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{69891936-7063-B248-93D6-0D934E95CEA7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{69891936-7063-B248-93D6-0D934E95CEA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="87">
   <si>
     <t>X</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>R^2</t>
+  </si>
+  <si>
+    <t>Newtown Interpolating Polynomials</t>
   </si>
 </sst>
 </file>
@@ -3830,54 +3833,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$81:$H$81</c:f>
+              <c:f>Sheet2!$C$85:$H$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$82:$H$82</c:f>
+              <c:f>Sheet2!$C$86:$H$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3885,7 +3888,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-12BB-5C42-8A93-FFF6DE57359D}"/>
+              <c16:uniqueId val="{00000001-F518-4B65-BA4B-5A747DEB4048}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3893,7 +3896,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Polinomial ]Interpolation Model</c:v>
+            <c:v>Interpolation</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3921,44 +3924,23 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="12"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.0499346617036565E-2"/>
-                  <c:y val="-0.14366135409310171"/>
+                  <c:x val="-3.0253482403046386E-2"/>
+                  <c:y val="-7.0410651412873573E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>2.8, </a:t>
-                    </a:r>
-                    <a:fld id="{3F03A2E6-559B-214D-AF85-0B27C64F8E92}" type="YVALUE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[Y VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
-              <c:showCatName val="0"/>
+              <c:showCatName val="1"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-12BB-5C42-8A93-FFF6DE57359D}"/>
+                  <c16:uniqueId val="{00000004-F518-4B65-BA4B-5A747DEB4048}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4019,10 +4001,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$90:$A$107</c:f>
+              <c:f>Sheet2!$A$94:$A$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4047,98 +4029,164 @@
                 <c:pt idx="7">
                   <c:v>2.75</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.00">
-                  <c:v>2.8</c:v>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.25</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.75</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.25</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.5</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.75</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5</c:v>
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$90:$B$107</c:f>
+              <c:f>Sheet2!$B$94:$B$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.5968749999999825</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.97308349609375666</c:v>
+                  <c:v>3.140625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76376488095237871</c:v>
+                  <c:v>3.625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1592372349330358</c:v>
+                  <c:v>4.546875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.451184082031251</c:v>
+                  <c:v>8.078125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>10.875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.39935302734375</c:v>
+                  <c:v>14.484375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.534914285714285</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.611458333333335</c:v>
+                  <c:v>24.515625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.751456124441965</c:v>
+                  <c:v>31.125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.031026785714289</c:v>
+                  <c:v>38.921875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.702006022135418</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.0000000000000018</c:v>
+                  <c:v>58.453125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0880004882812457</c:v>
+                  <c:v>70.375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9999999999999964</c:v>
+                  <c:v>83.859375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.4153930664062688</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-5.5513392857142563</c:v>
+                  <c:v>115.890625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134.625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>155.296875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>202.828125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>229.875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>259.234375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>325.265625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>362.125</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>401.671875</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4146,7 +4194,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-12BB-5C42-8A93-FFF6DE57359D}"/>
+              <c16:uniqueId val="{00000003-F518-4B65-BA4B-5A747DEB4048}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10128,13 +10176,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>563179</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>190796</xdr:rowOff>
+      <xdr:rowOff>190795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>913379</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>127785</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10539,8 +10587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143FF76D-2D5C-284C-A8F9-30D55B71F2C9}">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A76" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11961,6 +12009,11 @@
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="18"/>
     </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>86</v>
+      </c>
+    </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>62</v>
@@ -12307,7 +12360,7 @@
         <v>5</v>
       </c>
       <c r="B107">
-        <f t="shared" si="29"/>
+        <f>$C$82+$C$83*(A107-$C$81)+$C$84*(A107-$C$81)*(A107-$D$81)+$C$85*(A107-$C$81)*(A107-$D$81)*(A107-$E$81)+$C$86*(A107-$C$81)*(A107-$D$81)*(A107-$E$81)*(A107-$F$81)+$C$87*(A107-$C$81)*(A107-$D$81)*(A107-$E$81)*(A107-$F$81)*(A107-$G$81)</f>
         <v>-5.5513392857142563</v>
       </c>
     </row>
@@ -12331,10 +12384,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4E6DC8-4B28-A246-BEDD-F34D95C41EF3}">
-  <dimension ref="A1:K111"/>
+  <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13760,22 +13813,22 @@
         <v>62</v>
       </c>
       <c r="C85" s="16">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="D85" s="16">
         <v>2</v>
       </c>
       <c r="E85" s="16">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F85" s="16">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="G85" s="16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H85" s="16">
-        <v>4.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -13786,22 +13839,22 @@
         <v>63</v>
       </c>
       <c r="C86" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" s="16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E86" s="16">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F86" s="16">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="G86" s="16">
-        <v>8</v>
+        <v>291</v>
       </c>
       <c r="H86" s="16">
-        <v>2</v>
+        <v>444</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -13813,23 +13866,23 @@
       </c>
       <c r="C87" s="22">
         <f>(D86-C86)/(D85-C85)</f>
-        <v>15.000000000000004</v>
+        <v>3</v>
       </c>
       <c r="D87" s="20">
-        <f t="shared" ref="D87:G87" si="22">(E86-D86)/(E85-D85)</f>
-        <v>12</v>
+        <f>(E86-D86)/(E85-D85)</f>
+        <v>13</v>
       </c>
       <c r="E87" s="20">
-        <f t="shared" si="22"/>
-        <v>1.4285714285714282</v>
+        <f t="shared" ref="E87:G87" si="22">(F86-E86)/(F85-E85)</f>
+        <v>40</v>
       </c>
       <c r="F87" s="20">
         <f t="shared" si="22"/>
-        <v>-8.7500000000000018</v>
+        <v>96</v>
       </c>
       <c r="G87" s="20">
         <f t="shared" si="22"/>
-        <v>-12</v>
+        <v>153</v>
       </c>
       <c r="H87" s="20"/>
     </row>
@@ -13842,19 +13895,19 @@
       </c>
       <c r="C88" s="22">
         <f>(D87-C87)/(E85-C85)</f>
-        <v>-3.3333333333333375</v>
+        <v>5</v>
       </c>
       <c r="D88" s="20">
         <f t="shared" ref="D88:F88" si="23">(E87-D87)/(F85-D85)</f>
-        <v>-8.8095238095238084</v>
+        <v>9</v>
       </c>
       <c r="E88" s="20">
         <f t="shared" si="23"/>
-        <v>-6.7857142857142874</v>
+        <v>14</v>
       </c>
       <c r="F88" s="20">
         <f t="shared" si="23"/>
-        <v>-2.4999999999999991</v>
+        <v>19</v>
       </c>
       <c r="G88" s="21"/>
       <c r="H88" s="21"/>
@@ -13868,15 +13921,15 @@
       </c>
       <c r="C89" s="22">
         <f>(D88-C88)/(F85-C85)</f>
-        <v>-3.4226190476190443</v>
+        <v>1</v>
       </c>
       <c r="D89" s="20">
         <f t="shared" ref="D89:E89" si="24">(E88-D88)/(G85-D85)</f>
-        <v>1.0119047619047605</v>
+        <v>1</v>
       </c>
       <c r="E89" s="20">
         <f t="shared" si="24"/>
-        <v>2.1428571428571441</v>
+        <v>1</v>
       </c>
       <c r="F89" s="21"/>
       <c r="G89" s="21"/>
@@ -13891,11 +13944,11 @@
       </c>
       <c r="C90" s="22">
         <f>(D89-C89)/(G85-C85)</f>
-        <v>1.8477182539682522</v>
+        <v>0</v>
       </c>
       <c r="D90" s="20">
         <f>(E89-D89)/(H85-D85)</f>
-        <v>0.45238095238095344</v>
+        <v>0</v>
       </c>
       <c r="E90" s="21"/>
       <c r="F90" s="21"/>
@@ -13911,7 +13964,7 @@
       </c>
       <c r="C91" s="22">
         <f>(D90-C90)/(H85-C85)</f>
-        <v>-0.48115079365079266</v>
+        <v>0</v>
       </c>
       <c r="D91" s="21"/>
       <c r="E91" s="21"/>
@@ -13933,7 +13986,7 @@
       </c>
       <c r="B94">
         <f>$C$86+$C$87*(A94-$C$85)+$C$88*(A94-$C$85)*(A94-$D$85)+$C$89*(A94-$C$85)*(A94-$D$85)*(A94-$E$85)+$C$90*(A94-$C$85)*(A94-$D$85)*(A94-$E$85)*(A94-$F$85)+$C$91*(A94-$C$85)*(A94-$D$85)*(A94-$E$85)*(A94-$F$85)*(A94-$G$85)</f>
-        <v>0.5968749999999825</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -13942,18 +13995,18 @@
         <v>1.25</v>
       </c>
       <c r="B95">
-        <f t="shared" ref="B95:B111" si="25">$C$86+$C$87*(A95-$C$85)+$C$88*(A95-$C$85)*(A95-$D$85)+$C$89*(A95-$C$85)*(A95-$D$85)*(A95-$E$85)+$C$90*(A95-$C$85)*(A95-$D$85)*(A95-$E$85)*(A95-$F$85)+$C$91*(A95-$C$85)*(A95-$D$85)*(A95-$E$85)*(A95-$F$85)*(A95-$G$85)</f>
-        <v>-0.97308349609375666</v>
+        <f t="shared" ref="B95:B110" si="25">$C$86+$C$87*(A95-$C$85)+$C$88*(A95-$C$85)*(A95-$D$85)+$C$89*(A95-$C$85)*(A95-$D$85)*(A95-$E$85)+$C$90*(A95-$C$85)*(A95-$D$85)*(A95-$E$85)*(A95-$F$85)+$C$91*(A95-$C$85)*(A95-$D$85)*(A95-$E$85)*(A95-$F$85)*(A95-$G$85)</f>
+        <v>3.140625</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" ref="A96:A110" si="26">A95+0.25</f>
+        <f t="shared" ref="A96:A109" si="26">A95+0.25</f>
         <v>1.5</v>
       </c>
       <c r="B96">
         <f t="shared" si="25"/>
-        <v>0.76376488095237871</v>
+        <v>3.625</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -13963,7 +14016,7 @@
       </c>
       <c r="B97">
         <f t="shared" si="25"/>
-        <v>4.1592372349330358</v>
+        <v>4.546875</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -13973,7 +14026,7 @@
       </c>
       <c r="B98">
         <f t="shared" si="25"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -13983,7 +14036,7 @@
       </c>
       <c r="B99">
         <f t="shared" si="25"/>
-        <v>11.451184082031251</v>
+        <v>8.078125</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -13993,7 +14046,7 @@
       </c>
       <c r="B100">
         <f t="shared" si="25"/>
-        <v>14</v>
+        <v>10.875</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -14003,106 +14056,217 @@
       </c>
       <c r="B101">
         <f t="shared" si="25"/>
-        <v>15.39935302734375</v>
+        <v>14.484375</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="19">
-        <v>2.8</v>
+      <c r="A102">
+        <f>A101+0.25</f>
+        <v>3</v>
       </c>
       <c r="B102">
         <f t="shared" si="25"/>
-        <v>15.534914285714285</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f>A101+0.25</f>
-        <v>3</v>
+        <f t="shared" si="26"/>
+        <v>3.25</v>
       </c>
       <c r="B103">
         <f t="shared" si="25"/>
-        <v>15.611458333333335</v>
+        <v>24.515625</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="26"/>
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="B104">
         <f t="shared" si="25"/>
-        <v>14.751456124441965</v>
+        <v>31.125</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="26"/>
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="B105">
         <f t="shared" si="25"/>
-        <v>13.031026785714289</v>
+        <v>38.921875</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f t="shared" si="26"/>
-        <v>3.75</v>
+        <f>A105+0.25</f>
+        <v>4</v>
       </c>
       <c r="B106">
         <f t="shared" si="25"/>
-        <v>10.702006022135418</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f t="shared" si="26"/>
-        <v>4</v>
+        <f>A106+0.25</f>
+        <v>4.25</v>
       </c>
       <c r="B107">
         <f t="shared" si="25"/>
-        <v>8.0000000000000018</v>
+        <v>58.453125</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f>A107+0.25</f>
-        <v>4.25</v>
+        <f t="shared" si="26"/>
+        <v>4.5</v>
       </c>
       <c r="B108">
         <f t="shared" si="25"/>
-        <v>5.0880004882812457</v>
+        <v>70.375</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="26"/>
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="B109">
         <f t="shared" si="25"/>
-        <v>1.9999999999999964</v>
+        <v>83.859375</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <f t="shared" si="26"/>
-        <v>4.75</v>
+        <f>A109+0.25</f>
+        <v>5</v>
       </c>
       <c r="B110">
         <f t="shared" si="25"/>
-        <v>-1.4153930664062688</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <f>A110+0.25</f>
-        <v>5</v>
+        <f t="shared" ref="A111:A116" si="27">A110+0.25</f>
+        <v>5.25</v>
       </c>
       <c r="B111">
-        <f t="shared" si="25"/>
-        <v>-5.5513392857142563</v>
+        <f t="shared" ref="B111:B116" si="28">$C$86+$C$87*(A111-$C$85)+$C$88*(A111-$C$85)*(A111-$D$85)+$C$89*(A111-$C$85)*(A111-$D$85)*(A111-$E$85)+$C$90*(A111-$C$85)*(A111-$D$85)*(A111-$E$85)*(A111-$F$85)+$C$91*(A111-$C$85)*(A111-$D$85)*(A111-$E$85)*(A111-$F$85)*(A111-$G$85)</f>
+        <v>115.890625</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="27"/>
+        <v>5.5</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="28"/>
+        <v>134.625</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="27"/>
+        <v>5.75</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="28"/>
+        <v>155.296875</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="27"/>
+        <v>6</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="28"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="27"/>
+        <v>6.25</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="28"/>
+        <v>202.828125</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="27"/>
+        <v>6.5</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="28"/>
+        <v>229.875</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" ref="A117:A122" si="29">A116+0.25</f>
+        <v>6.75</v>
+      </c>
+      <c r="B117">
+        <f t="shared" ref="B117:B122" si="30">$C$86+$C$87*(A117-$C$85)+$C$88*(A117-$C$85)*(A117-$D$85)+$C$89*(A117-$C$85)*(A117-$D$85)*(A117-$E$85)+$C$90*(A117-$C$85)*(A117-$D$85)*(A117-$E$85)*(A117-$F$85)+$C$91*(A117-$C$85)*(A117-$D$85)*(A117-$E$85)*(A117-$F$85)*(A117-$G$85)</f>
+        <v>259.234375</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="29"/>
+        <v>7</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="30"/>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="29"/>
+        <v>7.25</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="30"/>
+        <v>325.265625</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="29"/>
+        <v>7.5</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="30"/>
+        <v>362.125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" si="29"/>
+        <v>7.75</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="30"/>
+        <v>401.671875</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="29"/>
+        <v>8</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="30"/>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
